--- a/todas.xlsx
+++ b/todas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrofelipe\pythonProject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrofelipe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C774FEDC-5A67-41AA-91A1-22CE56A037B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBC75F5-470C-4093-936C-0ADABB8B1966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ploomes" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="663">
   <si>
     <t>Objeto Sucinto</t>
   </si>
@@ -263,12 +263,6 @@
     <t>EXECUÇÃO DE EXTENSÃO DE REDE EM BAIXA TENSÃO.</t>
   </si>
   <si>
-    <t>SERVIÇOS DE ENGENHARIA COMPREENDENDO A ELABORAÇÃO DE PROJETOS ELETROMECÂNICOS PARA OBRAS DE REDES DEDISTRIBUIÇÃO DE ENERGIA ELÉTRICA, POR UNIDADE DE SERVIÇO - US - BASE SEDE SÃO JOSÉ DOS PINHAIS - PR</t>
-  </si>
-  <si>
-    <t>SERVICOS DE ENGENHARIA COMPREENDENDO LEVANTAMENTO TOPOGRAFICO E ELABORACAO DE PROJETOS PARA OBRAS DEREDES ELETRICAS, SOB REGIME DE EMPREITADA POR US, NA AREA DO DPOOES - BASE EM CASCAVEL.</t>
-  </si>
-  <si>
     <t>Serviços de Perdas Administrativas</t>
   </si>
   <si>
@@ -371,24 +365,15 @@
     <t>Serviço de leitura de hidrômetros, impressão simultânea de contas de água e comunicados, preenchimento de formulário para analisar consumo anormal, disponibilização de documentos diversos/faturas/segunda via de contas, identificação de ligação não cadastrada</t>
   </si>
   <si>
-    <t>MULTISERVIÇOS SÃO GONÇALO</t>
-  </si>
-  <si>
     <t>serviços de manobra elétrica operativa, retirada total de equipamentos de proteção e controle (IED) antigo, fornecimento e instalação de componentes menores para a nova IED, instalação completa da nova IED, adequações necessárias do novo equipamento, integração dos novos IEDs, As Built, unifilares e comissionamento</t>
   </si>
   <si>
-    <t>prestação de serviços comerciais em unidades consumidoras do grupo B, realizados por equipes compostas por dois eletricistas na abrangência das unidades de Jaraguá do Sul, Mafra e São Bento do Sul</t>
-  </si>
-  <si>
     <t>ATENDIMENTO</t>
   </si>
   <si>
     <t>Licitação Postos Conveniados</t>
   </si>
   <si>
-    <t>SERVIÇOS DE ENTREGA DE DOCUEMENTOS</t>
-  </si>
-  <si>
     <t>Fiscalização integramente nos Serviços Operacionais nas áreas de Perdas de Energia</t>
   </si>
   <si>
@@ -480,9 +465,6 @@
   </si>
   <si>
     <t>Serviços de Inspeção e Normalização Grupos A e B</t>
-  </si>
-  <si>
-    <t>Prestação de serviços Censo de Iluminação Pública e Inspeção/Normalização - CE.</t>
   </si>
   <si>
     <t>Desenvolvimento de serviços do Grupo B (BT) de (i) Inspeção, (ii) Normalização Leve.</t>
@@ -640,9 +622,6 @@
     <t>GESTAO IP</t>
   </si>
   <si>
-    <t>Serviços gestão de sistema de iluminação publica do municipio de Itaitinga CE</t>
-  </si>
-  <si>
     <t>Serviços de campo de Inspeção e Regularização de Unidades Consumidoras, localizadas nos perímetros urbanos e rurais, na área de concessão da Eletrobras Distribuição Piauí</t>
   </si>
   <si>
@@ -676,22 +655,13 @@
     <t>Serviços de Instalação Fotovoltaica [SOLO &amp; TELHADO]</t>
   </si>
   <si>
-    <t>Execução integral de seriços continuos de manutenção preventiva e corretiva, melhoria e ampliação do sistema de iluminação publica do municipio de Iguatu-CE</t>
-  </si>
-  <si>
     <t>Leitura de medidores de gas</t>
   </si>
   <si>
     <t>Serviços de elaboração de projeto executivo, fabricação, transporte, fornecimento dos equipamentos (“Produtos”), instalação e comissionamento e de Manutenção Preventiva dos sistemas de geração de energia solar fotovoltaica, do tipo SIGFI, no Pantanal Sul Mato-Grossense</t>
   </si>
   <si>
-    <t>Serviços de verificação e negociação em unidades consumidoras cortadas nas regionais de Lagos, Macaé e Campos da Enel Rio</t>
-  </si>
-  <si>
     <t>serviços de instalação de subestações e/ou instalação de PV Autopista fluminense</t>
-  </si>
-  <si>
-    <t>SOC de São Paulo 24+12 meses para as áreas 1, 2+3, 4, 5, 7, 8a, 8b, 10 e 11</t>
   </si>
   <si>
     <t>Serviços Técnicos e Comerciais Âncora</t>
@@ -743,11 +713,6 @@
     <t>Elaboração de projeto e construção de rede de iluminação pública aérea com fornecimento de material homologado junto à Enel Distribuição CE conforme Especificação Técnica 285 do Loteamento Laguna Ecopark SmartCity 1ª Etapa Setores 5 e 6 em São Gonçalo do Amarante - CE.</t>
   </si>
   <si>
-    <t>1.1. O presente contrato tem como objetos: 
-1.1.1. Elaboração do projeto de um sistema fotovoltaico de 8,175 kWp com fornecimento de material para o CONTRATANTE, no Distrito de Pires Façanha, no município de Eusébio-CE.
-1.1.2. Instalação de um sistema fotovoltaico de 8,175 kWp com fornecimento de material para o CONTRATANTE, no Distrito de Pires Façanha, no município de Eusébio-CE.</t>
-  </si>
-  <si>
     <t>O presente contrato tem como objeto inspeção técnica detalhada para identificar a causa do problema de geração das usinas Santa Rosa/CGP I e informar as possíveis soluções para a correção do(s) problemas(s) identificados, na Fazenda Santa Rosa, no município de Ibaretama-CE.</t>
   </si>
   <si>
@@ -775,10 +740,6 @@
   </si>
   <si>
     <t>Operação e Manutenção de Plantas Fotovoltaicas</t>
-  </si>
-  <si>
-    <t>Atividades Administrativas de Encerramento e Desativação de Ativos (Obras, Manutenções, Equipamentos);
-Atividades Operacionais de Encerramento e Desativação de Ativos (Obras, Manutenções, Equipamentos).</t>
   </si>
   <si>
     <t>MULTISERVIÇOS DE MÉDIA E BAIXA TENSÃO - MT – BT</t>
@@ -849,48 +810,16 @@
     <t>prestação serviços especializados em: Construção Civil e Montagem Eletrônica</t>
   </si>
   <si>
-    <t>Elaboração de Projeto do Grupo A conforme normas técnicas da Enel Distribuição CE. Itens descritos abaixo:
-o Planta de situação do imóvel, para fácil localização por rua e número, em escala 1:500 ou 1:1000 ou cotada, indicando limites da propriedade da unidade consumidora, rede de distribuição da distribuidora mais próxima com as referências existentes (chave, transformador, número de poste, etc.), ponto de derivação, além dos ramais de ligação e entrada, medição, até a proteção;
-o Planta de situação da SEE dentro da propriedade, em escala 1:100 ou cotada, com a indicação da localização do poste da distribuidora mais próximo;
-o Indicação em planta do percurso dos cabos do ramal de entrada e cortes onde indiquem a profundidade de instalação e como será construído o duto e seu envelopamento;
-o Plantas em cortes transversais e longitudinais da SEE, que possibilitem a visualização de todos os equipamentos instalados, as distâncias entre os pontos, características dos materiais e equipamentos, seção dos condutores, capacidade e impedância dos
-transformadores, relé, proteções, entre outros;
-o Diagrama unifilar da entrada consumidora, incluindo os circuitos de controle e proteção, contendo todos os equipamentos, dispositivos e materiais, desde o ponto de entrega até a proteção, contendo ainda, os principais valores elétricos nominais, faixas de ajustes e pontos de regulação;
-o Memorial descritivo do projeto;
-o Memorial do cálculo de demanda;
-o Relação de cargas instaladas e equipamentos elétricos especiais;
- ART em 1 (uma) via, emitida pelo CREA, especificando as atividades contempladas na proposta;
- Apresentação do projeto em meio magnético para aprovação no sistema da Satel, responsável pela aprovação Enel Distribuição CE;
- Entrega ao cliente 1 (uma) via impressa com carimbo da Enel contendo o indicativo de “Aprovado” ou “Aprovado Com Ressalvas” e 1 (uma) via em meio magnético fornecido pela Enel.</t>
-  </si>
-  <si>
-    <t>Elaboração de projeto de subestação abrigada com aprovação junto à Enel Distribuição CE em Itaitinga - CE.</t>
-  </si>
-  <si>
     <t>serviços especializados em levantamento de pontos de infraestrutura com compartilhamento de Uso Mútuo (UM), Iluminação Pública (IP), identificação de vegetação próxima à distribuição de média e baixa tensão (MT/BT) e Ativos de Rede (AR), situadas nas áreas urbanas e nos eixos das rodovias federais e municipais de concessão da Energisa Rondônia</t>
   </si>
   <si>
-    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM SERVIÇOS DE 
-LEITURA DE HIDRÔMETRO COM ENTREGA SIMULTÂNEA, CORTE PARCIAL, CORTE TOTAL 
-(SUPRESSÃO), RELIGAÇÃO DE ABASTECIMENTO DE ÁGUA, COM FORNECIMENTO DE 
-MATERIAIS E MÃO DE OBRA PELO PERÍODO DE 12 MESES</t>
-  </si>
-  <si>
     <t>LOCAÇÃO DE VEÍCULO.</t>
   </si>
   <si>
-    <t>Locação de equipamentos (Caminhão SKY e
-Plataforma Articulada)</t>
-  </si>
-  <si>
     <t>Ampliação SE Mombaça (obras civis, montagem eletromecânica e fornecimento de materiais)</t>
   </si>
   <si>
     <t>Fornecimento de Sistemas de Microgeração de Energia Solar Fotovoltaico ON-GRIDE para os predios publicos de Solonopoles CE</t>
-  </si>
-  <si>
-    <t>Prestação de Serviços de leitura de medidores/hidrômetros, com impressão e 
-entrega simultânea das tarifas de água e esgoto</t>
   </si>
   <si>
     <t>Contratação de empresa especializada para a prestação dos serviços de leitura e emissão simultânea de fatura de água, esgoto e resíduos sólidos e aviso de débito, além de corte e 
@@ -900,9 +829,6 @@
     <t>REGISTRO DE PREÇOS PARA CONTRATAÇÃO DE PRESTAÇÃO DE SERVIÇOS DE COLETA DE LEITURAS NOS HIDRÔMETROS; IMPRESSÃO SIMULTÂNEA DAS CONTAS E AVISOS DE DÉBITOS; ENTREGA DE INFORMATIVOS, ENTREGA DE CONTAS REVISADAS; ENTREGA DE COMUNICADO DE DÉBITO E/OU CORTE; SERVIÇOS DE CORTE E SERVIÇOS DE RELIGAÇÃO DO FORNECIMENTO DE ÁGUA</t>
   </si>
   <si>
-    <t>Serviços de Levantamento Cadastral Georreferenciado no estado da Bahia</t>
-  </si>
-  <si>
     <t>DESCARTE DE LAMPADAS</t>
   </si>
   <si>
@@ -912,71 +838,18 @@
     <t>TELECOMANDO</t>
   </si>
   <si>
-    <t>Comissionamento e manutenção de equipamentos telecomandados na rede da Enel distribuição rio</t>
-  </si>
-  <si>
-    <t>serviços técnicos de obras de subestações, conforme condições detalhadas na especificação técnica/termo de referência I&amp;N número 082.2018</t>
-  </si>
-  <si>
-    <t>IMPLANTAÇÃO, MANUTENÇÃO, CONSERVAÇÃO, OPERAÇÃO E GESTÃO DE UMA USINA SOLAR FOTOVOLTAICA NO MUNiCípIO DE QUIXERAMOBIM</t>
-  </si>
-  <si>
-    <t>LICITAÇÃO ELETRÔNICA * CONTRATAÇÃO DE EMPRESA PARA EXECUÇÃO DE SERVIÇOS DE LEITURA INFORMATIZADA DE HIDRÔMETROS, EMISSÃO E ENTREGA SIMULTÂNEA DE FATURAS DE ÁGUA/ESGOTO POR COLETOR DE DADOS PORTÁTIL NAS RESIDÊNCIAS DOS USUÁRIOS DA CASAN NO ÂMBITO DA SUPERINTENDÊNCIA REGIONAL DE NEGÓCIOS OESTE - SRO, NORTE/VALE DO RIO ITAJAÍ - SRN, SUL/SERRA - SRS E DA REGIÃO METROPOLITANA DA GRANDE FLORIANÓPOLIS - SRM DE ACORDO COM AS ESPECIFICAÇÕES CONTIDAS NOS ANEXO I MODELO DE PROPOSTA DETALHADA, ANEXO I-A MODELO DE PLANILHA DE PREÇO DETALHADA, ANEXO I-B MODELO DE PLANILHA DE COMPOSIÇÃO DE PREÇOS E ANEXO II TERMO DE REFERÊNCIA</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA E ARQUITETURA PARA ELABORAÇÃO DO PROJETO EXECUTIVO E GERENCIAMENTO DO SISTEMA DE ILUMINAÇÃO PÚBLICA(IP) DO MUNICÍPIO DE PACAJUS,ENVOLVENDO A ATUALIZAÇÃO E OPERAÇÃO DO CADASTRO INFORMATIZADO DO PARQUE DE IP DO MUNICÍPIO, MANUTENÇÃO CORRETIVA E PREVENTIVA DA REDE DE IP, OPERAÇÃO REFORMA E OBRAS DE AMPLIAÇÃO, BEM COMO TODAS AS DEMAIS ATIVIDADES NECESSÁRIAS AO ATENDIMENTO DAS NECESSIDADES DA PREFEITURA QUANTO A SUA ILUMINAÇÃO PÚBLICA, OBEDECENDO AS NORMAS TÉCNICAS PERTINENTES E AOS CRITÉRIOS E PARÂMETROS TÉCNICOS DE QUALIDADE ESTABELECIDOS NESTE EDITAL .</t>
-  </si>
-  <si>
-    <t>Blindagem de Rede e Instalação de SMC (Sistema de Medição Centralizada) para COELBA</t>
-  </si>
-  <si>
-    <t>Leitura dos medidores de volume de gás da COMPAGAS</t>
-  </si>
-  <si>
-    <t>"Cadastro Técnico de Rede, de acordo com as especificações técnicas"</t>
-  </si>
-  <si>
-    <t>LEITURA DE AMPERIMETRO</t>
-  </si>
-  <si>
-    <t>leitura de macro medidores, horímetros, voltímetros e amperímetros entre outros equipamentos instalados em unidades operacionais e na rede de distribuição de água da Gerência Regional de Cascave</t>
-  </si>
-  <si>
     <t>Execução de Linha de Distribuição de Alta Tensão - 69kV e/ou 138 kV.</t>
   </si>
   <si>
     <t>Leitura Hidrometro</t>
   </si>
   <si>
-    <t>"CONTRATAÇÃO DE EMPRESA PARA EXECUÇÃO DE SERVIÇOS DE LEITURA
-INFORMATIZADA DE HIDRÔMETROS, EMISSÃO E ENTREGA SIMULTÂNEA DE FATURAS DE ÁGUA/ESGOTO POR
-COLETOR DE DADOS PORTÁTIL NAS RESIDÊNCIAS DOS USUÁRIOS DA CASAN NO ÂMBITO DA SUPERINTENDÊNCIA
-REGIONAL DE NEGÓCIOS OESTE – SRO, NORTE/VALE DO RIO ITAJAÍ – SRN, SUL/SERRA - SRS E DA REGIÃO
-METROPOLITANA DA GRANDE FLORIANÓPOLIS – SRM"</t>
-  </si>
-  <si>
-    <t>"Contratação de empresa para executar serviços de leitura de medidores, com faturamento imediato e repasse simultâneo de fatura, leitura de medidores e entrega posterior da fatura, emissão de notificação de débito e manutenção do cadastro com transmissão online e em tempo real dos dados apurados e coletados no município de Sobral
-CE (sede e distritos), com fornecimento de software de faturamento e hardware (smartphone e impressoras de campo), necessários para a execução do objeto destinado ao Serviço Autônomo de Água e Esgoto de Sobral"</t>
-  </si>
-  <si>
     <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA PARA PRESTAÇÃO DE SERVIÇOS TÉCNICOS DE ATENDIMENTO EMERGENCIAL [OPERAÇÃO DO PLANTÃO], COM FORNECIMENTO DE MATERIAL, PARA ATUAÇÃO EM TODA ÁREA DE CONCESSÃO DA COMPANHIA DE ELETRICIDADE DO AMAPÁ, POR UNIDADE DE SERVIÇO, EM REGIME PERMANENTE DE ATIVIDADES, DE ACORDO COM ESTE TERMO DE REFERÊNCIA E SEUS ANEXOS.</t>
   </si>
   <si>
     <t>Serviços Técnicos de Atendimento Emergencial (Operação do Plantão), com Fornecimento de Material</t>
   </si>
   <si>
-    <t>"CONTRATAÇÃO DE SERVIÇOS TÉCNICOS ESPECIALIZADOS DE LEITURA DE
-MEDIDORES COM FATURAMENTO, EMISSÃO E ENTREGA SIMULTÂNEA DA CONTA E
-RESPECTIVAS NOTIFICAÇÕES E/OU COMUNICADOS DECORRENTES DA LEITURA, ENTREGA
-DE SEGUNDA VIA DA CONTA E ENTREGA DE CONTA RETIDA PARA ANÁLISE, LEITURA DO
-HIDRÔMETRO ATRAVÉS DE COLETOR DE DADOS, SEM EMISSÃO E ENTREGA SIMULTÂNEA DE
-CONTA PARA CLIENTES DE CICLOS ESPECIAIS, IDENTIFICAÇÃO DE ÁGUA E/OU ESGOTO NÃO
-CADASTRADA, CRÍTICA DE LEITURA E ATENDIMENTO AO CLIENTE, NOS MUNICÍPIOS DE
-SERRA, VITÓRIA E NOS MUNICÍPIOS QUE COMPÕEM AS DIVISÕES SERRANA, NOROESTE E
-CENTRO-NORTE EM QUE A CESAN PRESTA SERVIÇOS DE ABASTECIMENTO DE ÁGUA E
-COLETA DE ESGOTO, NO PRESENTE E NO FUTURO."</t>
-  </si>
-  <si>
     <t>ANALISE PROJETO USO MUTUO</t>
   </si>
   <si>
@@ -995,9 +868,6 @@
     <t>Levantamento Cadastral Georreferenciado da Coelba (Lote 1 – Superintendência Centro / Norte)</t>
   </si>
   <si>
-    <t>Serviços continuos de apuração de consumo informatizada atraves de software desenvolvido pela Sabesp, atendimento ao usuario e outros serviços comerciais para os municipios operados pela unidade de negocio medio tiete- RM</t>
-  </si>
-  <si>
     <t>Prestação de serviços de vistoria técnica, análise técnica de projetos de compartilhamento de infraestrutura de redes de distribuição com redes de telecomunicações e outros.</t>
   </si>
   <si>
@@ -1013,31 +883,13 @@
     <t>EXECUÇÃO DE SERVIÇOS ELÉTRICOS EMERGENCIAIS, POR DEMANDA, PARA O INTERIOR DO ESTADO DO CEARÁ, ABRANGENDO AS REGIÕES DA SUPERINTENDÊNCIA DE NEGÓCIO SUL - SNS</t>
   </si>
   <si>
-    <t>Serviços de execução de obras eletricas e Civis em Itaorna (Angra dos Reis) Trecho 01</t>
-  </si>
-  <si>
-    <t>Inspeção, Instalação de cabo submarino e realização de obra civil para adequação do cabo novo e existentes nas Ilhas Itacuruçá, Jardim, Sororoca, Jaguanum e Marambaia – Município de Mangaratiba – RJ.</t>
-  </si>
-  <si>
     <t>Serviços de leituras de hidrômetros e entregas de contas (convencional e/ou simultânea); Cobrança e Notificação de débitos;</t>
   </si>
   <si>
-    <t>APURAÇÃO DE CONSUMO INFORMATIZADO COM TRANSMISSÃO “ON-LINE” DOS DADOS APURADOS, COM EMISSÃO SIMULTANEA DE FATURAMENTO, EMISSÃO DE NOTIFICAÇÃO DE DÉBITO PARA TODAS AS LOCALIDADES OPERADAS PELA CAGEPA NO ESTADO DA PARAÍBA</t>
-  </si>
-  <si>
-    <t>Apuração de consumo informatizada atraves de software desenvolvido pela Compesa que utiliza transmissão on-line em tempo real da leituras dos medidores de agua, emissão simultanea e entrega da fatura e da notificação de debito, manutenção cadastral e georreferenciamento em dois lotes, paras as gerencias do interior do estado de Pernambuco</t>
-  </si>
-  <si>
     <t>PRESTAÇÃO DE SERVIÇOS CONTÍNUOS DE APURAÇÃO DE CONSUMO INFORMATIZADA ATRAVÉS DE SOFTWARE DESENVOLVIDO PELA SABESP ATENDIMENTO AO USUÁRIO E OUTROS SERVIÇOS COMERCIAIS.</t>
   </si>
   <si>
     <t>Contratação de empresa na prestação de serviços de mão de obra terceirizada, cujos empregados sejam regidos pela CONSOLIDAÇÃO DAS LEIS TRABALHISTAS (CLT), para Execução de Serviços Sistemáticos e Continuados, de Apoio Administrativo e Comercial, combate à Fraude, Manutenção e Operação dos SAAs e Coleta de Esgoto Operados pela Unidade de Negócio Bacia do Parnaíba - UNBPA da CAGECE.</t>
-  </si>
-  <si>
-    <t>Contratação de serviços de medição individualizada no estado de Goiás, pelo prazo de 22 meses.</t>
-  </si>
-  <si>
-    <t>Contratação de serviços de inspeção e normalização</t>
   </si>
   <si>
     <t>CONTRATAÇÃO DE EMPRESA DESTINADA À PRESTAÇÃO DE SERVIÇOS DE LEITURA DE HIDRÔMETROS POR MEIO DE DISPOSITIVOS MÓVEIS COM TECNOLOGIA DE TRANSMISSÃO DE DADOS, REALIZANDO A EMISSÃO E ENTREGA SIMULTÂNEAS DE FATURAS (CONTAS) E ENTREGA DE COMUNICADOS AOS USUÁRIOS, BEM COMO DE SERVIÇOS ESPECIALIZADOS DE SUPRESSÕES (CORTES) POR INADIMPLÊNCIA E RESTABELECIMENTOS (RELIGAÇÕES) DO FORNECIMENTO DE ÁGUA, SUBSTITUIÇÃO DE HIDRÔMETROS, FISCALIZAÇÃO E SERVIÇOS AFINS</t>
@@ -1117,10 +969,6 @@
     <t>Prestação de Serviços técnicos de engenharia para fornecimento e implantação de sistema de geração de energia fotovoltaica on-grid no Edificio-Sede da subseção Judiciária de Sousa/PB</t>
   </si>
   <si>
-    <t>Serviço de levantamento cadastral georreferenciado da iluminação pública (IP) e cessão de uso compartilhado para a 
-NEOENERGIA PERNAMBUCO</t>
-  </si>
-  <si>
     <t>serviços de leitura de medidores de consumo de energia elétrica do grupo “B” (baixa tensão) com registro fotográfico, incluindo eventual entrega de avisos aos clientes, corte com dispositivo de bloqueio do disjuntor e outras atividades complementares, no local das unidades consumidoras, em roteiros rurais; e, serviços de leitura de medidores com a impressão simultânea e entrega da fatura de energia, no local das unidades consumidoras, doravante denominados faturamentos LIS, incluindo eventual registro fotográfico, entrega de avisos aos clientes, corte com dispositivo de bloqueio do disjuntor e outras atividades complementares</t>
   </si>
   <si>
@@ -1128,15 +976,6 @@
   </si>
   <si>
     <t>SERVIÇOS DE RECUPERAÇÃO DE ENERGIA (REN)</t>
-  </si>
-  <si>
-    <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA PARA CONSTRUÇÃO DE LINHAS DE ALTA TENSÃO (69Kv), 
-COM REALIZAÇÃO DE OBRAS CIVIS, MONTAGEM ELETROMECÂNICA, QUE DEVERÃO SER ENTREGUES INSTALADOS, 
-COMISSIONADOS E TESTADOS, PRONTOS PARA OPERAÇÃO - LD SE ARIQUEMES I - SE ARIQUEMES – Rondônia</t>
-  </si>
-  <si>
-    <t>PRESTAÇÃO DE SERVIÇOS SPECIALIZADOS EM LEVANTAMENTO DE PONTOS DE
- INFRAESTRUTURA COM COMPARTILHAMENTO DE USO MÚTUO (UM), ILUMINAÇÃO PÚBLICA (IP), IDENTIFICAÇÃO DE VEGETAÇÃO PRÓXIMA À DISTRIBUIÇÃO DE MÉDIA E BAIXA  TENSÃO (MT/BT) E ATIVOS DE REDE (AR), SITUADAS NAS ÁREAS URBANAS E NOS EIXOS DAS RODOVIAS FEDERAIS E MUNICIPAIS DE CONCESSÃO DA ENERGISA RONDÔNIA</t>
   </si>
   <si>
     <t>Serviços de Construção e Manutenção em redes de distribuição de energia elétrica, até 13,8 kV, e poda de arvores com redes desenergizadas e energizadas, situadas nas regiões urbanas e rurais da Energisa Sergipe</t>
@@ -1151,13 +990,6 @@
     <t>Execução do serviço de execução das OBRAS CIVIS de uma subestação com tensões de 138 / 13,8 kV</t>
   </si>
   <si>
-    <t>instalação de sistemas fotovoltaicos em laje, telhados e aos trabalhos necessários para que o sistema fotovoltaico seja 
-totalmente operativo, instalado de forma segura e de acordo com os padrões de qualidade exigidos pela Enel X</t>
-  </si>
-  <si>
-    <t>Projetos MGDI para atendimento a comunidades remotas em ilhas costeiras no estado do Maranhão, abrangendo os municípios de Apicum-Açu, Alcântara, Cândido Mendes, Cururupu, Luis Domingues e Turiaçu. Tais projetos irão compor a 1ª tranche MLA (Mais Luz para a Amazônia) da EQTL MA</t>
-  </si>
-  <si>
     <t>SERVIÇO DE LEITURA/ ENTREGA DE FATURAS E REAVISOS</t>
   </si>
   <si>
@@ -1170,23 +1002,12 @@
     <t>Serviços de fiscalização, vistoria e gerenciamento da implantação de redes de distribuição BTZero e sistemas de medição centralizada</t>
   </si>
   <si>
-    <t>SERVIÇOS EM REDES DA DISTRIBUIÇÃO PARA A REGIÃO DE PARACATÚ E UNAÍ</t>
-  </si>
-  <si>
     <t>Usinas fotovoltaicas</t>
   </si>
   <si>
-    <t>serviços de atendimento presencial, por meio da disponibilização de empregado e espaço físico, para a realização de atividades de recepção, registro e 
-encaminhamento de solicitações de serviços e de reclamações, a impressão de documentos relacionados aos serviços e a prestação de informações, recebimento e entrega de documentos e de orientações para os consumidores da baixa tensão da COPEL</t>
-  </si>
-  <si>
     <t>serviço de desinstalação e instalação de carregadores elétricos e prestação de serviços inerentes a atividade</t>
   </si>
   <si>
-    <t>fornecimento de equipamentos e 
-serviços para implantação de sistemas solares fotovoltaicos no âmbito do Programa de Eficiência Energética das Distribuidoras Neoenergia</t>
-  </si>
-  <si>
     <t>Análise de Projetos de Compartilhamento de Infraestrutura</t>
   </si>
   <si>
@@ -1215,11 +1036,6 @@
   </si>
   <si>
     <t>ILUMINAÇÃO PÚBLICA</t>
-  </si>
-  <si>
-    <t>Instalação de luminarias LED COB - 10unid - Barro-CE
-instalação de luminárias 50W LED em braço de 2 (dois) metros com 
-todos os materiais elétricos inclusos em Barro-CE</t>
   </si>
   <si>
     <t>SUBSTITUIÇÃO DE PARAFUSOS DE FIXAÇÃO DOS MÓDULOS</t>
@@ -1552,9 +1368,6 @@
     <t>Fornecimento de equipamentos e prestação de serviços de Geração Fotovoltaica da Energisa ACRE</t>
   </si>
   <si>
-    <t>Instalação de Plantas Fotovoltaicas em Campos dos Goytacazes e Seropédica</t>
-  </si>
-  <si>
     <t>serviços de leitura de medidores de consumo de 
 energia elétrica do grupo “B” (baixa tensão) com registro fotográfico, incluindo eventual entrega de 
 avisos aos clientes, corte com dispositivo de bloqueio do disjuntor e outras atividades complementares, 
@@ -1564,20 +1377,6 @@
 corte com dispositivo de bloqueio do disjuntor e outras atividades complementares</t>
   </si>
   <si>
-    <t>O escopo da presente concorrência consiste no fornecimento de equipamentos e prestação de serviços 
-de Geração Fotovoltaica da Energisa Tocantins para o ano 2023</t>
-  </si>
-  <si>
-    <t>Serviços construção, manutenção, comerciais, emergenciais e Serviços de RDA p/região de Juiz de Fora</t>
-  </si>
-  <si>
-    <t>Cadastro de unidade consumidora da Neoenergia Brasília (Indagação)</t>
-  </si>
-  <si>
-    <t>O escopo da presente concorrência consiste no fornecimento de equipamentos e prestação de serviços 
-de Geração Fotovoltaica da Energisa Mato Grosso para o ano 2023</t>
-  </si>
-  <si>
     <t>Locação de caminhão marca MERCEDES BENZ modelo 1318, cor branca, ano 2011/2011, chassi
 9BM694000BB805098, placa NOE 7948 equipado com guindaste de 12 toneladas e cabine auxiliar refrigerada com carroceria aberta específico a ser utilizado nos serviços no estado do Ceará</t>
   </si>
@@ -1633,9 +1432,6 @@
     <t>Levantamento de carga e socioeconômico de clientes a serem atendidos com Sistemas de Geração Individual com Fonte Intermitente (SIGFI)</t>
   </si>
   <si>
-    <t>Prestação de Serviços de Diagramação do Relatório de Sustentabilidade</t>
-  </si>
-  <si>
     <t>Os trabalhos que a DISTRIBUIDORA instruir à CONTRATADA em razão do presente contrato são as Elétricas e Proteção e Controle de Subestações, com finalidade de comissionamento das subestações de propriedade da
 DISTRIBUIDORA ou instalações de propriedade da DISTRIBUIDORA localizadas em Subestações de Terceiros ou Subestações de terceiros na zona de concessão da DISTRIBUIDORA. As subestações mencionadas operam principalmente em tensões nominais de 13,8, 34,5, 69 e 138 kV</t>
   </si>
@@ -1643,12 +1439,6 @@
     <t>Manutenção de Serviços em linha viva 230KV</t>
   </si>
   <si>
-    <t>serviços de ampliação e reforma na Subestação de
-Sete Pontes, incluindo o fornecimento de materiais, obras civis, montagem/desmontagem
-eletromecânica e comissionamento, de acordo com os projetos a serem fornecidos pela
-CONTRATANTE</t>
-  </si>
-  <si>
     <t>serviço de recrutamento e seleção profissional especializado para atender ao grupo Enel no Brasil de forma exclusiva, de maneira adequada e obedecendo as normas e regulamentos vigentes de saúde, segurança e meio-ambiente da Contratante e dos órgãos competentes.</t>
   </si>
   <si>
@@ -1661,24 +1451,12 @@
     <t>Análise de Projetos de Compartilhamento de Infraestrutura Enel Goias</t>
   </si>
   <si>
-    <t>Instalação de Elementos Decorativos Natalinos - Natal Angra dos reis 2022</t>
-  </si>
-  <si>
     <t>Locação e Instalação Natal Angra dos reis 2022</t>
   </si>
   <si>
-    <t>Locacao de Elementos Decorativos Natalinos - Natal Angra dos reis 2022</t>
-  </si>
-  <si>
-    <t>Pacote 16 - Obras Enel Goiás</t>
-  </si>
-  <si>
     <t>Poda para atender as áreas 7, 8A y 10 para MT BT</t>
   </si>
   <si>
-    <t>Verificação e Inspeção de Perdas Administrativas</t>
-  </si>
-  <si>
     <t>BPO SERVIÇOS ADMINISTRATIVOS BRASIL</t>
   </si>
   <si>
@@ -1691,9 +1469,6 @@
     <t>RFP O&amp;M Caruaru - Serviços no do Parque de Iluminação Pública de Caruaru/PE</t>
   </si>
   <si>
-    <t>Conservação, Manutenção e Reforma de Subestações (HV) - ENEL SÃO PAULO</t>
-  </si>
-  <si>
     <t>Contratação de empresa especializada na realização de serviços relacionados às atividades de Inspeção e Normalização de Unidades Consumidoras do Grupo A e B e ainda, serviços de atenção à emergência em situações de contingência na área de Concessão da Enel Distribuição Goiás</t>
   </si>
   <si>
@@ -1709,12 +1484,6 @@
     <t>Contratação de empresa especializada na realização dos serviços para Cálculo de TOI aplicados a clientes dos grupos A e B de forma competente, com qualidade e eficiência, cumprindo todos os regulamentos especificados na legislação vigente sobre a matéria na área de Concessão da Enel Distribuição Goiás.</t>
   </si>
   <si>
-    <t>Contratação de empresa especializada para prestação de serviços técnicos de Manutenção AT no Centro Técnico, Laboratório de Materiais Isolantes e Manutenções Civis</t>
-  </si>
-  <si>
-    <t>Instalação de Carregador para E-Bus - Goiás</t>
-  </si>
-  <si>
     <t>Poda Massiva CE</t>
   </si>
   <si>
@@ -1737,12 +1506,6 @@
   </si>
   <si>
     <t>Contratação de Construção da Linha Subterrânea</t>
-  </si>
-  <si>
-    <t>Serviços para atendimento do CENTRO DE OPERAÇÕES MEDIÇÃO ELETRÔNICA (COM)</t>
-  </si>
-  <si>
-    <t>Prestação de Serviços para atendimento do CENTRO DE OPERAÇÕES MEDIÇÃO ELETRÔNICA (COM):</t>
   </si>
   <si>
     <t>Obras Civis e Elétricas (Eletromecânica), assim como Manutenção, de Linhas de Alta Tensão e Subestações , de propriedade da DISTRIBUIDORA ou de terceiros associados ao sistema elétrico da DISTRIBUIDORA na Enel
@@ -1752,21 +1515,6 @@
     <t>de Multisserviços em Redes de Distribuição de Média e Baixa Tensão da empresa Enel Distribuição Rio</t>
   </si>
   <si>
-    <t>Serviços de Operações Comercial em Maricá.
-Grupos de Instalação: Operações comerciais (SOC), Comercial
-(corte/religação) e Emergência.</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE ATENDIMENTO COMERCIAL E
-EDUCACIONAL EM COMUNIDADES</t>
-  </si>
-  <si>
-    <t>Capina qúmica em SE</t>
-  </si>
-  <si>
-    <t>Multisserviços em Redes de Distribuição de Média e Baixa Tensão da empresa Enel Distribuição Rio</t>
-  </si>
-  <si>
     <t>construção, remoção e colocação em serviço de infraestruturas de redes elétricas, subestações de clientes MT/BT, e/ou equipamentos no sistema de distribuição elétrico, em redes subterrâneas de Média Tensão (MT) e Baixa Tensão (BT) como definido pela DISTRIBUIDORA</t>
   </si>
   <si>
@@ -1796,29 +1544,632 @@
     <t>serviços de substituição emergencial de controladores dos Sistemas SIGFI no Pantanal/MS</t>
   </si>
   <si>
-    <t>Construção de rede de distribuição aérea de média / baixa tensão com fornecimento de material homologado junto à Enel Distribuição CE conforme Especificação Técnica 285 do Loteamento Celebration SmartCity Aquiraz Setor H I UM, Transformadores 01 e 02 em Aquiraz - CE</t>
-  </si>
-  <si>
-    <t>Construção de rede de distribuição aérea de média / baixa tensão com fornecimento de material homologado junto à Enel Distribuição CE conforme Especificação Técnica 285 do Loteamento SmartCity Laguna Etapa 2 Setor 6 em São Gonçalo do Amarante - CE</t>
-  </si>
-  <si>
-    <t>Construção de rede de iluminação pública com aprovação junto à Enel Distribuição CE conforme Especificação 
-Técnica 285 do Loteamento Laguna Ecopark 2ª Etapa Setor 6 - C</t>
-  </si>
-  <si>
-    <t>Construção de rede de iluminação pública com aprovação junto à Enel Distribuição CE conforme Especificação Técnica 285 do Loteamento SmartCity Celebration Setor H, I e UM em Aquiraz - CE.</t>
+    <t xml:space="preserve">Elaboração de projeto de subestação abrigada com aprovação junto à Distribuição </t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE LEITURA DE HIDRÔMETRO COM ENTREGA SIMULTÂNEA, CORTE PARCIAL, CORTE TOTAL 
+(SUPRESSÃO), RELIGAÇÃO DE ABASTECIMENTO DE ÁGUA</t>
+  </si>
+  <si>
+    <t>Locação de equipamentos (Caminhão SKY e
+Plataforma Articulada) Aluguel de carros, aluguel de veículos</t>
+  </si>
+  <si>
+    <t>leitura de medidores/hidrômetros, com impressão e 
+entrega simultânea das tarifas de água e esgoto</t>
+  </si>
+  <si>
+    <t>Serviços de Levantamento Cadastral Georreferenciado</t>
+  </si>
+  <si>
+    <t>Comissionamento e manutenção de equipamentos telecomandados na rede</t>
+  </si>
+  <si>
+    <t>serviços técnicos de obras de subestações, conforme condições detalhadas na especificação técnica/termo de referência I&amp;N, manutenção subestação</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO, MANUTENÇÃO, CONSERVAÇÃO, OPERAÇÃO E GESTÃO DE UMA USINA SOLAR FOTOVOLTAICA</t>
+  </si>
+  <si>
+    <t>LICITAÇÃO ELETRÔNICA * CONTRATAÇÃO DE EMPRESA PARA EXECUÇÃO DE SERVIÇOS DE LEITURA INFORMATIZADA DE HIDRÔMETROS, EMISSÃO E ENTREGA SIMULTÂNEA DE FATURAS DE ÁGUA/ESGOTO</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA E ARQUITETURA PARA ELABORAÇÃO DO PROJETO EXECUTIVO E GERENCIAMENTO DO SISTEMA DE ILUMINAÇÃO PÚBLICA(IP) ,ENVOLVENDO A ATUALIZAÇÃO E OPERAÇÃO DO CADASTRO INFORMATIZADO DO PARQUE DE IP DO MUNICÍPIO, MANUTENÇÃO CORRETIVA E PREVENTIVA DA REDE DE IP, OPERAÇÃO REFORMA E OBRAS DE AMPLIAÇÃO, BEM COMO TODAS AS DEMAIS ATIVIDADES NECESSÁRIAS AO ATENDIMENTO DAS NECESSIDADES DA PREFEITURA QUANTO A SUA ILUMINAÇÃO PÚBLICA, OBEDECENDO AS NORMAS TÉCNICAS PERTINENTES E AOS CRITÉRIOS E PARÂMETROS TÉCNICOS DE QUALIDADE ESTABELECIDOS NESTE EDITAL .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blindagem de Rede e Instalação de SMC (Sistema de Medição Centralizada) </t>
+  </si>
+  <si>
+    <t>Leitura dos medidores de volume de gás, gas</t>
+  </si>
+  <si>
+    <t>Cadastro Técnico de Rede, de acordo com as especificações técnicas</t>
+  </si>
+  <si>
+    <t>leitura de macro medidores, horímetros, voltímetros e amperímetros entre outros equipamentos instalados em unidades operacionais e na rede de distribuição de água</t>
+  </si>
+  <si>
+    <t>LEITURA DE EQUIPAMENTOS</t>
+  </si>
+  <si>
+    <t>Serviços continuos de apuração de consumo informatizada atraves de software desenvolvido pela Sabesp, atendimento ao usuario e outros serviços comerciais para os municipios operados pela unidade de negocio medio</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>MULTISERVIÇOS</t>
+  </si>
+  <si>
+    <t>MANUTENCAO DE REDE</t>
+  </si>
+  <si>
+    <t>prestação de serviços comerciais em unidades consumidoras do grupo B, realizados por equipes compostas por dois eletricistas na abrangência das unidades</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE ENTREGA DE DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>SOT</t>
+  </si>
+  <si>
+    <t>Multisserviços em Redes de Distribuição de Média e Baixa Tensão da empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservação, Manutenção e Reforma de Subestações (HV) </t>
+  </si>
+  <si>
+    <t>Serviços de análise de manifestação do cliente e ressarcimento de danos elétricos.</t>
+  </si>
+  <si>
+    <t>Atendimento a clientes para resolução de demandas comerciais e técnicas.</t>
+  </si>
+  <si>
+    <t>Gestão de contratos de manutenção de rede e geração de relatórios técnicos.</t>
+  </si>
+  <si>
+    <t>SERVIÇOS TÉCNICOS</t>
+  </si>
+  <si>
+    <t>Manutenção em redes de energia elétrica desenergizadas e energizadas.</t>
+  </si>
+  <si>
+    <t>Construções e melhoramentos de rede elétrica aérea e subterrânea.</t>
+  </si>
+  <si>
+    <t>Execução de obras de eletrificação rural e urbana.</t>
+  </si>
+  <si>
+    <t>Serviços de recomposição de rede após intempéries climáticas.</t>
+  </si>
+  <si>
+    <t>Inspeção e normalização de unidades consumidoras.</t>
+  </si>
+  <si>
+    <t>Vistoria técnica para combate a perdas comerciais e fraudes.</t>
+  </si>
+  <si>
+    <t>Regularização de ligações clandestinas e inspeção de ramais.</t>
+  </si>
+  <si>
+    <t>Instalação de sistemas de geração fotovoltaica conectados à rede.</t>
+  </si>
+  <si>
+    <t>Projeto e implantação de usina solar em solo.</t>
+  </si>
+  <si>
+    <t>Aquisição e instalação de equipamentos para geração solar fotovoltaica.</t>
+  </si>
+  <si>
+    <t>Serviço de instalação de usina solar em telhado zipado com inversores string.</t>
+  </si>
+  <si>
+    <t>Comissionamento e testes de usinas de micro e minigeração distribuída.</t>
+  </si>
+  <si>
+    <t>Leitura de medidores de energia elétrica.</t>
+  </si>
+  <si>
+    <t>Coleta de dados de consumo em baixa e média tensão.</t>
+  </si>
+  <si>
+    <t>Leitura com sistema de telemetria remota.</t>
+  </si>
+  <si>
+    <t>CONSTRUÇÃO DE REDE</t>
+  </si>
+  <si>
+    <t>Serviços de mão de obra para rede de distribuição subterrânea e aérea.</t>
+  </si>
+  <si>
+    <t>Construção de rede de distribuição em áreas urbanas e rurais.</t>
+  </si>
+  <si>
+    <t>Implantação de ramais de ligação monofásicos, bifásicos e trifásicos.</t>
+  </si>
+  <si>
+    <t>LEITURA ÁGUA</t>
+  </si>
+  <si>
+    <t>Leitura informatizada de hidrômetros com entrega simultânea de faturas.</t>
+  </si>
+  <si>
+    <t>Serviços de leitura e aferição de hidrômetros residenciais e comerciais.</t>
+  </si>
+  <si>
+    <t>LINHA VIVA</t>
+  </si>
+  <si>
+    <t>Serviços em rede energizada com técnicas de linha viva.</t>
+  </si>
+  <si>
+    <t>Manutenção preventiva em redes de distribuição energizadas.</t>
+  </si>
+  <si>
+    <t>Substituição de isoladores em linha viva.</t>
+  </si>
+  <si>
+    <t>SUBESTAÇÃO</t>
+  </si>
+  <si>
+    <t>Montagem e comissionamento de subestações de energia elétrica.</t>
+  </si>
+  <si>
+    <t>Ensaios e testes de disjuntores e transformadores de potência.</t>
+  </si>
+  <si>
+    <t>Serviços de manutenção corretiva em equipamentos de subestação.</t>
+  </si>
+  <si>
+    <t>TRANSMISSÃO</t>
+  </si>
+  <si>
+    <t>Construção de linhas de transmissão em alta tensão.</t>
+  </si>
+  <si>
+    <t>Manutenção de linhas de transmissão e cabos OPGW.</t>
+  </si>
+  <si>
+    <t>Serviços de inspeção aérea e terrestre em linhas de transmissão.</t>
+  </si>
+  <si>
+    <t>Instalação de luminárias LED em vias públicas.</t>
+  </si>
+  <si>
+    <t>Serviços de manutenção corretiva em pontos de iluminação pública.</t>
+  </si>
+  <si>
+    <t>Implantação de sistemas de telegestão de iluminação pública.</t>
+  </si>
+  <si>
+    <t>EFICIÊNCIA</t>
+  </si>
+  <si>
+    <t>Projeto de eficiência energética em prédios públicos e privados.</t>
+  </si>
+  <si>
+    <t>Retrofit de iluminação em instalações industriais e comerciais.</t>
+  </si>
+  <si>
+    <t>Serviços de combate a perdas comerciais em unidades consumidoras.</t>
+  </si>
+  <si>
+    <t>Campanhas de regularização de consumidores em áreas críticas.</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>Instalação de medidores inteligentes com comunicação remota.</t>
+  </si>
+  <si>
+    <t>Serviços de implantação de concentradores de dados de medição.</t>
+  </si>
+  <si>
+    <t>Monitoramento de redes de comunicação para medição inteligente.</t>
+  </si>
+  <si>
+    <t>ATENDIMENTO EMERGENCIAL</t>
+  </si>
+  <si>
+    <t>Restabelecimento de fornecimento após eventos climáticos severos.</t>
+  </si>
+  <si>
+    <t>Troca emergencial de postes danificados por acidentes.</t>
+  </si>
+  <si>
+    <t>Atendimento emergencial em áreas críticas com falhas de fornecimento.</t>
+  </si>
+  <si>
+    <t>TREINAMENTO</t>
+  </si>
+  <si>
+    <t>Capacitação de eletricistas em técnicas de linha viva.</t>
+  </si>
+  <si>
+    <t>Treinamento de equipes em procedimentos de segurança NR-10.</t>
+  </si>
+  <si>
+    <t>DIVERSOS</t>
+  </si>
+  <si>
+    <t>Serviço complementar de apoio técnico nº 48.</t>
+  </si>
+  <si>
+    <t>Serviço complementar de apoio técnico nº 49.</t>
+  </si>
+  <si>
+    <t>Serviço complementar de apoio técnico nº 50.</t>
+  </si>
+  <si>
+    <t>Serviço complementar de apoio técnico nº 51.</t>
+  </si>
+  <si>
+    <t>Serviço complementar de apoio técnico nº 52.</t>
+  </si>
+  <si>
+    <t>Serviço complementar de apoio técnico nº 53.</t>
+  </si>
+  <si>
+    <t>Serviço complementar de apoio técnico nº 54.</t>
+  </si>
+  <si>
+    <t>Serviço complementar de apoio técnico nº 55.</t>
+  </si>
+  <si>
+    <t>AUTOMAÇÃO</t>
+  </si>
+  <si>
+    <t>Serviços de instalação e programação de sistemas de automação de subestações.</t>
+  </si>
+  <si>
+    <t>MONITORAMENTO</t>
+  </si>
+  <si>
+    <t>Implantação de sistema de monitoramento remoto de transformadores e religadores.</t>
+  </si>
+  <si>
+    <t>SEGURANÇA DO TRABALHO</t>
+  </si>
+  <si>
+    <t>Treinamento de equipes em procedimentos de segurança elétrica NR-35.</t>
+  </si>
+  <si>
+    <t>AUDITORIA ENERGÉTICA</t>
+  </si>
+  <si>
+    <t>Execução de auditoria energética em unidades consumidoras industriais.</t>
+  </si>
+  <si>
+    <t>PROTEÇÃO ELÉTRICA</t>
+  </si>
+  <si>
+    <t>Serviços de configuração de relés de proteção em subestações de energia.</t>
+  </si>
+  <si>
+    <t>MEDIÇÃO DE QUALIDADE</t>
+  </si>
+  <si>
+    <t>Medição de qualidade de energia em redes de distribuição.</t>
+  </si>
+  <si>
+    <t>ATERRO ELÉTRICO</t>
+  </si>
+  <si>
+    <t>Serviços de instalação e manutenção de sistemas de aterramento elétrico.</t>
+  </si>
+  <si>
+    <t>DESCARGA ATMOSFÉRICA</t>
+  </si>
+  <si>
+    <t>Instalação de sistemas de proteção contra descargas atmosféricas (SPDA).</t>
+  </si>
+  <si>
+    <t>TELECOM</t>
+  </si>
+  <si>
+    <t>Implantação de redes de comunicação óptica para integração com sistemas de energia.</t>
+  </si>
+  <si>
+    <t>GERAÇÃO EÓLICA</t>
+  </si>
+  <si>
+    <t>Serviços de montagem e manutenção de aerogeradores eólicos.</t>
+  </si>
+  <si>
+    <t>BATERIAS</t>
+  </si>
+  <si>
+    <t>Instalação e manutenção de sistemas de armazenamento em baterias para energia elétrica.</t>
+  </si>
+  <si>
+    <t>VEÍCULOS ELÉTRICOS</t>
+  </si>
+  <si>
+    <t>Implantação de pontos de recarga para veículos elétricos em áreas urbanas.</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>Serviços de mapeamento georreferenciado para ativos de distribuição e transmissão.</t>
+  </si>
+  <si>
+    <t>SUPERVISÓRIO</t>
+  </si>
+  <si>
+    <t>Configuração e manutenção de sistemas supervisórios SCADA.</t>
+  </si>
+  <si>
+    <t>ILUMINAÇÃO CÊNICA</t>
+  </si>
+  <si>
+    <t>Projeto e instalação de iluminação cênica e arquitetural eficiente.</t>
+  </si>
+  <si>
+    <t>MICRORREDE</t>
+  </si>
+  <si>
+    <t>Projeto e instalação de microrredes inteligentes com integração de fontes renováveis.</t>
+  </si>
+  <si>
+    <t>COGERAÇÃO</t>
+  </si>
+  <si>
+    <t>Serviços de implantação de sistemas de cogeração de energia elétrica e térmica.</t>
+  </si>
+  <si>
+    <t>ARMAZENAMENTO</t>
+  </si>
+  <si>
+    <t>Estudos e implantação de sistemas de armazenamento em larga escala com baterias.</t>
+  </si>
+  <si>
+    <t>HIDRELÉTRICA</t>
+  </si>
+  <si>
+    <t>Serviços de operação e manutenção em pequenas centrais hidrelétricas (PCHs).</t>
+  </si>
+  <si>
+    <t>BIOENERGIA</t>
+  </si>
+  <si>
+    <t>Instalação de sistemas de geração elétrica a partir de biomassa e biogás.</t>
+  </si>
+  <si>
+    <t>RELIGAÇÃO</t>
+  </si>
+  <si>
+    <t>Serviços de religação de energia elétrica em unidades consumidoras após corte por inadimplência.</t>
+  </si>
+  <si>
+    <t>Execução de corte de fornecimento de energia elétrica por inadimplência ou irregularidades.</t>
+  </si>
+  <si>
+    <t>PODA DE ÁRVORES</t>
+  </si>
+  <si>
+    <t>Serviços de poda e manejo de vegetação em áreas de redes de distribuição elétrica.</t>
+  </si>
+  <si>
+    <t>INSPEÇÃO TERMOGRÁFICA</t>
+  </si>
+  <si>
+    <t>Inspeções termográficas em subestações e linhas de distribuição para identificar aquecimentos anormais.</t>
+  </si>
+  <si>
+    <t>DRONES</t>
+  </si>
+  <si>
+    <t>Inspeção aérea de redes de distribuição e transmissão utilizando drones.</t>
+  </si>
+  <si>
+    <t>ILUMINAÇÃO LED</t>
+  </si>
+  <si>
+    <t>Substituição de luminárias convencionais por LED em vias públicas e áreas industriais.</t>
+  </si>
+  <si>
+    <t>ESTUDOS DE PROTEÇÃO</t>
+  </si>
+  <si>
+    <t>Elaboração de estudos de seletividade e coordenação de proteção elétrica.</t>
+  </si>
+  <si>
+    <t>ENSAIOS ELÉTRICOS</t>
+  </si>
+  <si>
+    <t>Execução de ensaios dielétricos em cabos de potência e equipamentos.</t>
+  </si>
+  <si>
+    <t>ENERGIZAÇÃO</t>
+  </si>
+  <si>
+    <t>Procedimentos de energização de linhas e subestações de energia elétrica.</t>
+  </si>
+  <si>
+    <t>SUBTERRÂNEA</t>
+  </si>
+  <si>
+    <t>Serviços de construção e manutenção de redes subterrâneas de energia elétrica.</t>
+  </si>
+  <si>
+    <t>POSTES</t>
+  </si>
+  <si>
+    <t>Troca e manutenção de postes de distribuição em áreas urbanas e rurais.</t>
+  </si>
+  <si>
+    <t>TRANSFORMADORES</t>
+  </si>
+  <si>
+    <t>Serviços de manutenção, ensaio e substituição de transformadores de distribuição.</t>
+  </si>
+  <si>
+    <t>CABOS</t>
+  </si>
+  <si>
+    <t>Instalação e substituição de cabos de média e alta tensão.</t>
+  </si>
+  <si>
+    <t>RELÉS</t>
+  </si>
+  <si>
+    <t>Configuração e manutenção de relés de proteção em sistemas elétricos.</t>
+  </si>
+  <si>
+    <t>MOTORES ELÉTRICOS</t>
+  </si>
+  <si>
+    <t>Serviços de manutenção preventiva e corretiva em motores elétricos industriais.</t>
+  </si>
+  <si>
+    <t>VARIADORES DE FREQUÊNCIA</t>
+  </si>
+  <si>
+    <t>Instalação e configuração de inversores de frequência para motores elétricos.</t>
+  </si>
+  <si>
+    <t>GERADORES</t>
+  </si>
+  <si>
+    <t>Manutenção preventiva e corretiva em geradores de energia elétrica.</t>
+  </si>
+  <si>
+    <t>ESTABILIDADE DE SISTEMA</t>
+  </si>
+  <si>
+    <t>Estudos de estabilidade dinâmica em sistemas de transmissão e distribuição.</t>
+  </si>
+  <si>
+    <t>CAPACITORES</t>
+  </si>
+  <si>
+    <t>Instalação de bancos de capacitores para compensação de reativo em redes elétricas.</t>
+  </si>
+  <si>
+    <t>RELIGADORES</t>
+  </si>
+  <si>
+    <t>Instalação e manutenção de religadores automáticos em redes de distribuição.</t>
+  </si>
+  <si>
+    <t>Instalação de Elementos Decorativos Natalinos</t>
+  </si>
+  <si>
+    <t>Locacao de Elementos Decorativos Natalinos</t>
+  </si>
+  <si>
+    <t>serviços de ampliação e reforma na Subestação</t>
+  </si>
+  <si>
+    <t>SIGFI</t>
+  </si>
+  <si>
+    <t>ELABORAÇÃO DE PROJETOS</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO DE VEÍCULO</t>
+  </si>
+  <si>
+    <t>O escopo da presente concorrência consiste no fornecimento de equipamentos e prestação de serviços 
+de Geração Fotovoltaica</t>
+  </si>
+  <si>
+    <t>Cadastro de unidade consumidora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços construção, manutenção, comerciais, emergenciais e Serviços de RDA </t>
+  </si>
+  <si>
+    <t>Instalação de Plantas Fotovoltaicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serviços de atendimento presencial, por meio da disponibilização de empregado e espaço físico, para a realização de atividades de recepção, registro e 
+encaminhamento de solicitações de serviços e de reclamações, a impressão de documentos relacionados aos serviços e a prestação de informações, recebimento e entrega de documentos e de orientações para os consumidores da baixa tensão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fornecimento de equipamentos e 
+serviços para implantação de sistemas solares fotovoltaicos no âmbito do Programa de Eficiência Energética </t>
+  </si>
+  <si>
+    <t>Instalação de luminarias LED COB -
+instalação de luminárias 50W LED em braço de 2 (dois) metros com 
+todos os materiais elétricos inclusos</t>
+  </si>
+  <si>
+    <t>SERVIÇOS EM REDES DA DISTRIBUIÇÃO</t>
+  </si>
+  <si>
+    <t>MIGDI</t>
+  </si>
+  <si>
+    <t>Projetos MIGDI para atendimento a comunidades remotas</t>
+  </si>
+  <si>
+    <t>instalação de sistemas fotovoltaicos em laje, telhados e aos trabalhos necessários para que o sistema fotovoltaico seja 
+totalmente operativo, instalado de forma segura e de acordo com os padrões de qualidade exigidos</t>
+  </si>
+  <si>
+    <t>PRESTAÇÃO DE SERVIÇOS SPECIALIZADOS EM LEVANTAMENTO DE PONTOS DE
+ INFRAESTRUTURA COM COMPARTILHAMENTO DE USO MÚTUO (UM), ILUMINAÇÃO PÚBLICA (IP), IDENTIFICAÇÃO DE VEGETAÇÃO PRÓXIMA À DISTRIBUIÇÃO DE MÉDIA E BAIXA  TENSÃO (MT/BT) E ATIVOS DE REDE (AR)</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA PARA CONSTRUÇÃO DE LINHAS DE ALTA TENSÃO (69Kv), 
+COM REALIZAÇÃO DE OBRAS CIVIS, MONTAGEM ELETROMECÂNICA, QUE DEVERÃO SER ENTREGUES INSTALADOS, 
+COMISSIONADOS E TESTADOS, PRONTOS PARA OPERAÇÃO</t>
+  </si>
+  <si>
+    <t>Serviço de levantamento cadastral georreferenciado da iluminação pública (IP) e cessão de uso compartilhado</t>
+  </si>
+  <si>
+    <t>Contratação de serviços de inspeção e normalização DE UNIDADE CONSUMIDORA</t>
+  </si>
+  <si>
+    <t>APURAÇÃO DE CONSUMO INFORMATIZADO COM TRANSMISSÃO “ON-LINE” DOS DADOS APURADOS, COM EMISSÃO SIMULTANEA DE FATURAMENTO, EMISSÃO DE NOTIFICAÇÃO DE DÉBITO PARA TODAS AS LOCALIDADES OPERADAS</t>
+  </si>
+  <si>
+    <t>Apuração de consumo informatizada atraves de software desenvolvido pela Compesa que utiliza transmissão on-line em tempo real da leituras dos medidores de agua, emissão simultanea e entrega da fatura e da notificação de debito, manutenção cadastral e georreferenciamento em dois lotes, paras as gerencias do interior</t>
+  </si>
+  <si>
+    <t>SERVICOS COMERCIAIS</t>
+  </si>
+  <si>
+    <t>Serviços de verificação e negociação em unidades consumidoras cortadas</t>
+  </si>
+  <si>
+    <t>Execução integral de seriços continuos de manutenção preventiva e corretiva, melhoria e ampliação do sistema de iluminação publica</t>
+  </si>
+  <si>
+    <t>Serviços gestão de sistema de iluminação publica</t>
+  </si>
+  <si>
+    <t>Prestação de serviços Censo de Iluminação Pública e Inspeção/Normalização</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE ENGENHARIA COMPREENDENDO A ELABORAÇÃO DE PROJETOS ELETROMECÂNICOS PARA OBRAS DE REDES DEDISTRIBUIÇÃO DE ENERGIA ELÉTRICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICOS DE ENGENHARIA COMPREENDENDO LEVANTAMENTO TOPOGRAFICO E ELABORACAO DE PROJETOS PARA OBRAS DEREDES ELETRICAS, SOB REGIME DE EMPREITADA POR US, NA AREA DO DPOOES </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1850,18 +2201,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{54B774BE-63C2-4082-9C38-489B62BF59F7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1877,8 +2231,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B494" totalsRowShown="0">
-  <autoFilter ref="A1:B494" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B566" totalsRowShown="0">
+  <autoFilter ref="A1:B566" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Objeto Sucinto"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Objeto do contrato"/>
@@ -2172,16 +2526,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="197" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2975,7 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>661</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2983,7 @@
         <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,7 +2991,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +2999,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2653,7 +3007,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2661,7 +3015,7 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +3023,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +3031,7 @@
         <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +3039,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +3055,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +3063,7 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +3071,7 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +3079,7 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +3095,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +3103,7 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +3111,7 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +3119,7 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +3127,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,7 +3159,7 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +3175,7 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +3191,7 @@
         <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +3199,7 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +3207,7 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +3215,7 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,7 +3223,7 @@
         <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +3239,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,7 +3255,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,15 +3263,15 @@
         <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>482</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,15 +3279,15 @@
         <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +3295,7 @@
         <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +3303,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +3311,7 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +3327,7 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +3335,7 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3343,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,15 +3359,15 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +3375,7 @@
         <v>73</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,15 +3383,15 @@
         <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3415,7 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,23 +3423,23 @@
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,15 +3447,15 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3463,7 @@
         <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,15 +3471,15 @@
         <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3487,7 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3495,7 @@
         <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3503,7 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3519,7 @@
         <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>660</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,15 +3527,15 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3543,7 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3551,7 @@
         <v>56</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3567,7 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3575,7 @@
         <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,23 +3583,23 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +3615,7 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +3623,7 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,23 +3639,23 @@
         <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3309,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,7 +3671,7 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,7 +3679,7 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +3687,7 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +3695,7 @@
         <v>46</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,15 +3703,15 @@
         <v>46</v>
       </c>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +3719,7 @@
         <v>46</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +3727,7 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,15 +3735,15 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B151" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3751,7 @@
         <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3405,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,15 +3767,15 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>42</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,15 +3783,15 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3799,7 @@
         <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +3807,7 @@
         <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +3815,7 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,7 +3823,7 @@
         <v>60</v>
       </c>
       <c r="B161" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +3831,7 @@
         <v>60</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +3839,7 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,15 +3847,15 @@
         <v>56</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B165" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3509,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,7 +3871,7 @@
         <v>60</v>
       </c>
       <c r="B167" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3525,7 +3879,7 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +3887,7 @@
         <v>73</v>
       </c>
       <c r="B169" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +3895,7 @@
         <v>73</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,7 +3903,7 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,23 +3911,23 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>659</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +3935,7 @@
         <v>60</v>
       </c>
       <c r="B175" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,7 +3943,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,15 +3951,15 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B178" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3967,7 @@
         <v>46</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,7 +3975,7 @@
         <v>42</v>
       </c>
       <c r="B180" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,7 +3983,7 @@
         <v>46</v>
       </c>
       <c r="B181" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3991,7 @@
         <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3999,7 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +4007,7 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,23 +4015,23 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>213</v>
+        <v>658</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B187" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,15 +4039,15 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>657</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,119 +4055,119 @@
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="B195" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="B196" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="B198" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>10</v>
-      </c>
-      <c r="B200" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>115</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="B201" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3821,103 +4175,103 @@
         <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B206" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>13</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
+      </c>
+      <c r="B207" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>237</v>
-      </c>
-      <c r="B209" t="s">
-        <v>238</v>
+        <v>13</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>194</v>
+      </c>
+      <c r="B211" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>18</v>
       </c>
-      <c r="B210" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>13</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>13</v>
-      </c>
-      <c r="B212" t="s">
-        <v>241</v>
+      <c r="B212" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B213" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>18</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>243</v>
+        <v>49</v>
+      </c>
+      <c r="B214" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>49</v>
+      </c>
+      <c r="B215" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>236</v>
+      </c>
+      <c r="B216" t="s">
         <v>237</v>
       </c>
-      <c r="B215" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>73</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>49</v>
-      </c>
-      <c r="B217" t="s">
-        <v>246</v>
+        <v>16</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,143 +4279,143 @@
         <v>49</v>
       </c>
       <c r="B218" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>248</v>
-      </c>
-      <c r="B219" t="s">
-        <v>249</v>
+        <v>219</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>16</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>49</v>
-      </c>
-      <c r="B221" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>18</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>16</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="B226" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B227" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="B229" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="B230" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>8</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>262</v>
+        <v>73</v>
+      </c>
+      <c r="B231" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B232" t="s">
-        <v>263</v>
+        <v>464</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="B233" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>73</v>
-      </c>
-      <c r="B234" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>266</v>
+        <v>466</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,127 +4423,127 @@
         <v>22</v>
       </c>
       <c r="B236" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>16</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>269</v>
+        <v>467</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="B241" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>16</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="B242" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>16</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
+      </c>
+      <c r="B243" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B244" t="s">
-        <v>276</v>
+        <v>470</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>277</v>
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>472</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="B247" t="s">
-        <v>281</v>
+        <v>473</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B248" t="s">
-        <v>282</v>
+        <v>474</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="B249" t="s">
-        <v>283</v>
+        <v>475</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="B250" t="s">
-        <v>284</v>
+        <v>476</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>200</v>
+        <v>478</v>
       </c>
       <c r="B251" t="s">
-        <v>285</v>
+        <v>477</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,127 +4551,127 @@
         <v>13</v>
       </c>
       <c r="B252" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="B253" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>289</v>
+        <v>56</v>
       </c>
       <c r="B255" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="B256" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>16</v>
+        <v>478</v>
       </c>
       <c r="B257" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>16</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B258" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>16</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>294</v>
+        <v>56</v>
+      </c>
+      <c r="B259" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B260" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>56</v>
+        <v>480</v>
       </c>
       <c r="B261" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>16</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>297</v>
+        <v>267</v>
+      </c>
+      <c r="B262" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="B263" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>289</v>
+        <v>2</v>
       </c>
       <c r="B264" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B265" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B267" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,111 +4679,111 @@
         <v>16</v>
       </c>
       <c r="B268" t="s">
-        <v>304</v>
+        <v>654</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>305</v>
+        <v>655</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>16</v>
+        <v>656</v>
       </c>
       <c r="B270" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B271" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>308</v>
+        <v>653</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B273" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>73</v>
-      </c>
-      <c r="B274" t="s">
-        <v>310</v>
+        <v>16</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B275" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B276" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B278" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B279" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B280" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B281" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,119 +4791,119 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>16</v>
-      </c>
-      <c r="B283" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>16</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>320</v>
+        <v>49</v>
+      </c>
+      <c r="B284" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B285" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>73</v>
-      </c>
-      <c r="B286" t="s">
-        <v>322</v>
+        <v>10</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="B288" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="B289" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B290" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>130</v>
-      </c>
-      <c r="B291" t="s">
-        <v>327</v>
+        <v>219</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B292" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>73</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>329</v>
+        <v>135</v>
+      </c>
+      <c r="B293" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>49</v>
-      </c>
-      <c r="B295" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>10</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>332</v>
+      <c r="B296" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4557,7 +4911,7 @@
         <v>10</v>
       </c>
       <c r="B297" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4565,63 +4919,63 @@
         <v>56</v>
       </c>
       <c r="B298" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>10</v>
-      </c>
-      <c r="B299" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>219</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>13</v>
       </c>
-      <c r="B300" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>229</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>42</v>
-      </c>
-      <c r="B302" t="s">
-        <v>338</v>
+        <v>49</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B303" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>8</v>
       </c>
-      <c r="B304" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B304" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>229</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>341</v>
+        <v>647</v>
+      </c>
+      <c r="B305" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4629,63 +4983,63 @@
         <v>10</v>
       </c>
       <c r="B306" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B307" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B308" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>73</v>
+      </c>
+      <c r="B309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>13</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>229</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>346</v>
+      <c r="B310" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B311" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>348</v>
+        <v>643</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B313" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4693,23 +5047,23 @@
         <v>8</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>350</v>
+        <v>644</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="B315" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B316" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,199 +5071,199 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B318" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B319" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B320" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="B321" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>115</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>358</v>
+        <v>255</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B323" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>8</v>
+        <v>324</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>360</v>
+        <v>645</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="B325" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>42</v>
-      </c>
-      <c r="B326" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>8</v>
-      </c>
-      <c r="B327" t="s">
-        <v>363</v>
+        <v>13</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B328" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B329" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B330" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="B331" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="B332" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="B333" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>370</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>371</v>
+        <v>8</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B335" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>370</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>13</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>374</v>
+      <c r="B337" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B338" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B340" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B341" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4917,399 +5271,399 @@
         <v>13</v>
       </c>
       <c r="B342" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>370</v>
-      </c>
-      <c r="B343" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>8</v>
-      </c>
-      <c r="B344" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>40</v>
-      </c>
-      <c r="B345" t="s">
-        <v>382</v>
+        <v>16</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="B346" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>13</v>
-      </c>
-      <c r="B347" t="s">
-        <v>384</v>
+        <v>324</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>8</v>
+      </c>
+      <c r="B348" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>22</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>219</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>46</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>194</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>194</v>
+      </c>
+      <c r="B353" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>345</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>194</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>194</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>13</v>
       </c>
-      <c r="B348" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>386</v>
-      </c>
-      <c r="B349" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>73</v>
-      </c>
-      <c r="B350" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>73</v>
-      </c>
-      <c r="B351" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>13</v>
-      </c>
-      <c r="B352" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>46</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>392</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>16</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>298</v>
-      </c>
-      <c r="B356" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>370</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>396</v>
+      <c r="B357" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B358" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>22</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B359" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>229</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B360" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>46</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B361" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>200</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>401</v>
+        <v>194</v>
+      </c>
+      <c r="B362" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="B363" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>392</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B364" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>200</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B365" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>200</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="B366" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>13</v>
       </c>
-      <c r="B367" t="s">
-        <v>406</v>
+      <c r="B367" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B368" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>22</v>
+      </c>
+      <c r="B369" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
         <v>10</v>
       </c>
-      <c r="B369" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>13</v>
-      </c>
-      <c r="B370" t="s">
-        <v>409</v>
+      <c r="B370" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B371" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B372" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="B373" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>73</v>
+      </c>
+      <c r="B374" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
         <v>13</v>
       </c>
-      <c r="B374" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>13</v>
-      </c>
-      <c r="B375" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>58</v>
-      </c>
-      <c r="B376" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B376" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>4</v>
-      </c>
-      <c r="B378" t="s">
-        <v>417</v>
+        <v>49</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>10</v>
+        <v>382</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B381" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>10</v>
       </c>
-      <c r="B382" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>229</v>
-      </c>
-      <c r="B383" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>73</v>
-      </c>
-      <c r="B384" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>2</v>
+      </c>
+      <c r="B386" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>10</v>
       </c>
-      <c r="B385" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>13</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>49</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>49</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>427</v>
+        <v>4</v>
+      </c>
+      <c r="B388" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B389" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>429</v>
+        <v>49</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B391" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5317,575 +5671,575 @@
         <v>10</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>10</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="B395" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B396" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>131</v>
+      </c>
+      <c r="B397" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
         <v>10</v>
       </c>
-      <c r="B397" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>4</v>
-      </c>
-      <c r="B398" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>73</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>8</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>73</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
         <v>13</v>
       </c>
-      <c r="B399" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>49</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>18</v>
-      </c>
-      <c r="B401" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="B403" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>13</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>13</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>13</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>226</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>226</v>
+      </c>
+      <c r="B408" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>8</v>
+      </c>
+      <c r="B409" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
         <v>10</v>
       </c>
-      <c r="B402" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>10</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>200</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>136</v>
-      </c>
-      <c r="B405" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>136</v>
-      </c>
-      <c r="B406" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>136</v>
-      </c>
-      <c r="B407" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>10</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>73</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>8</v>
-      </c>
       <c r="B410" s="2" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>73</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B412" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>13</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>453</v>
+        <v>131</v>
+      </c>
+      <c r="B413" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>454</v>
+        <v>639</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>13</v>
+        <v>638</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>13</v>
+        <v>637</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="B418" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B419" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>237</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>461</v>
+        <v>56</v>
+      </c>
+      <c r="B421" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B422" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="B423" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>237</v>
+        <v>636</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>270</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B425" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>13</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>466</v>
+        <v>63</v>
+      </c>
+      <c r="B426" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>136</v>
-      </c>
-      <c r="B428" t="s">
-        <v>468</v>
+        <v>13</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="B429" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B431" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>44</v>
-      </c>
-      <c r="B432" t="s">
-        <v>472</v>
+        <v>22</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B433" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>44</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>474</v>
+        <v>22</v>
+      </c>
+      <c r="B434" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B435" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="B436" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>56</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="B437" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>13</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>478</v>
+        <v>324</v>
+      </c>
+      <c r="B438" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="B439" t="s">
-        <v>479</v>
+        <v>634</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="B440" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>63</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>481</v>
+        <v>60</v>
+      </c>
+      <c r="B441" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B442" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>22</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>483</v>
+        <v>73</v>
+      </c>
+      <c r="B443" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B444" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="B445" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B446" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="B447" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="B448" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="B449" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="B450" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B451" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B452" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B453" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B454" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B455" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B456" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="B457" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B458" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B459" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>4</v>
       </c>
-      <c r="B460" t="s">
-        <v>500</v>
+      <c r="B460" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B461" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B462" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B463" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -5893,247 +6247,823 @@
         <v>73</v>
       </c>
       <c r="B464" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>73</v>
-      </c>
-      <c r="B465" t="s">
-        <v>505</v>
+        <v>6</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="B466" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>140</v>
-      </c>
-      <c r="B467" t="s">
-        <v>507</v>
+        <v>485</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B468" t="s">
-        <v>508</v>
+        <v>460</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B469" t="s">
-        <v>509</v>
+        <v>461</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B470" t="s">
-        <v>510</v>
+        <v>462</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B471" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>13</v>
-      </c>
-      <c r="B472" t="s">
+      <c r="B493" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>13</v>
-      </c>
-      <c r="B473" t="s">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B494" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>73</v>
-      </c>
-      <c r="B474" t="s">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>73</v>
-      </c>
-      <c r="B475" t="s">
+      <c r="B495" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>4</v>
-      </c>
-      <c r="B476" s="2" t="s">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B496" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>49</v>
-      </c>
-      <c r="B477" t="s">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B497" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>56</v>
-      </c>
-      <c r="B478" s="2" t="s">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>73</v>
-      </c>
-      <c r="B479" s="2" t="s">
+      <c r="B498" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>73</v>
-      </c>
-      <c r="B480" t="s">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B499" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>49</v>
-      </c>
-      <c r="B481" t="s">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B500" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>13</v>
-      </c>
-      <c r="B482" t="s">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>73</v>
-      </c>
-      <c r="B483" t="s">
+      <c r="B501" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>6</v>
-      </c>
-      <c r="B484" s="2" t="s">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B502" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>73</v>
-      </c>
-      <c r="B485" t="s">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B503" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>73</v>
-      </c>
-      <c r="B486" s="2" t="s">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B504" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>4</v>
-      </c>
-      <c r="B487" t="s">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B505" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>73</v>
-      </c>
-      <c r="B488" t="s">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B506" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>73</v>
-      </c>
-      <c r="B489" t="s">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>8</v>
-      </c>
-      <c r="B490" t="s">
+      <c r="B507" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>13</v>
-      </c>
-      <c r="B491" t="s">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B508" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>13</v>
-      </c>
-      <c r="B492" t="s">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B509" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>13</v>
-      </c>
-      <c r="B493" s="2" t="s">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B510" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>13</v>
-      </c>
-      <c r="B494" t="s">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
         <v>534</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
